--- a/natmiOut/OldD2/LR-pairs_lrc2p/Egf-Erbb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Egf-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0434398271635604</v>
+        <v>0.055305</v>
       </c>
       <c r="H2">
-        <v>0.0434398271635604</v>
+        <v>0.11061</v>
       </c>
       <c r="I2">
-        <v>0.05717086108537411</v>
+        <v>0.05948165296722621</v>
       </c>
       <c r="J2">
-        <v>0.05717086108537411</v>
+        <v>0.04627135150330648</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.127706855121299</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N2">
-        <v>0.127706855121299</v>
+        <v>0.481669</v>
       </c>
       <c r="O2">
-        <v>0.01620821741097792</v>
+        <v>0.01905578313479183</v>
       </c>
       <c r="P2">
-        <v>0.01620821741097792</v>
+        <v>0.02595755287029415</v>
       </c>
       <c r="Q2">
-        <v>0.005547563714071078</v>
+        <v>0.008879568015</v>
       </c>
       <c r="R2">
-        <v>0.005547563714071078</v>
+        <v>0.05327740809</v>
       </c>
       <c r="S2">
-        <v>0.0009266377460445606</v>
+        <v>0.001133469479442409</v>
       </c>
       <c r="T2">
-        <v>0.0009266377460445606</v>
+        <v>0.001201091053027043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0434398271635604</v>
+        <v>0.055305</v>
       </c>
       <c r="H3">
-        <v>0.0434398271635604</v>
+        <v>0.11061</v>
       </c>
       <c r="I3">
-        <v>0.05717086108537411</v>
+        <v>0.05948165296722621</v>
       </c>
       <c r="J3">
-        <v>0.05717086108537411</v>
+        <v>0.04627135150330648</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.553741808692665</v>
+        <v>0.5664446666666666</v>
       </c>
       <c r="N3">
-        <v>0.553741808692665</v>
+        <v>1.699334</v>
       </c>
       <c r="O3">
-        <v>0.07027945067094503</v>
+        <v>0.06722903109309158</v>
       </c>
       <c r="P3">
-        <v>0.07027945067094503</v>
+        <v>0.09157855736883304</v>
       </c>
       <c r="Q3">
-        <v>0.02405444846284669</v>
+        <v>0.03132722229</v>
       </c>
       <c r="R3">
-        <v>0.02405444846284669</v>
+        <v>0.18796333374</v>
       </c>
       <c r="S3">
-        <v>0.004017936711465</v>
+        <v>0.003998893896802134</v>
       </c>
       <c r="T3">
-        <v>0.004017936711465</v>
+        <v>0.004237463618178991</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0434398271635604</v>
+        <v>0.055305</v>
       </c>
       <c r="H4">
-        <v>0.0434398271635604</v>
+        <v>0.11061</v>
       </c>
       <c r="I4">
-        <v>0.05717086108537411</v>
+        <v>0.05948165296722621</v>
       </c>
       <c r="J4">
-        <v>0.05717086108537411</v>
+        <v>0.04627135150330648</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.887055446878028</v>
+        <v>0.8891996666666667</v>
       </c>
       <c r="N4">
-        <v>0.887055446878028</v>
+        <v>2.667599</v>
       </c>
       <c r="O4">
-        <v>0.1125827389996808</v>
+        <v>0.105535519276905</v>
       </c>
       <c r="P4">
-        <v>0.1125827389996808</v>
+        <v>0.1437591833380263</v>
       </c>
       <c r="Q4">
-        <v>0.03853353529687637</v>
+        <v>0.049177187565</v>
       </c>
       <c r="R4">
-        <v>0.03853353529687637</v>
+        <v>0.29506312539</v>
       </c>
       <c r="S4">
-        <v>0.006436452131961679</v>
+        <v>0.006277427133344875</v>
       </c>
       <c r="T4">
-        <v>0.006436452131961679</v>
+        <v>0.006651931704062097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0434398271635604</v>
+        <v>0.055305</v>
       </c>
       <c r="H5">
-        <v>0.0434398271635604</v>
+        <v>0.11061</v>
       </c>
       <c r="I5">
-        <v>0.05717086108537411</v>
+        <v>0.05948165296722621</v>
       </c>
       <c r="J5">
-        <v>0.05717086108537411</v>
+        <v>0.04627135150330648</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>6.3106384182577</v>
+        <v>0.088632</v>
       </c>
       <c r="N5">
-        <v>6.3106384182577</v>
+        <v>0.265896</v>
       </c>
       <c r="O5">
-        <v>0.8009295929183963</v>
+        <v>0.01051937432637061</v>
       </c>
       <c r="P5">
-        <v>0.8009295929183963</v>
+        <v>0.01432936202661939</v>
       </c>
       <c r="Q5">
-        <v>0.2741330421808387</v>
+        <v>0.00490179276</v>
       </c>
       <c r="R5">
-        <v>0.2741330421808387</v>
+        <v>0.02941075656</v>
       </c>
       <c r="S5">
-        <v>0.04578983449590287</v>
+        <v>0.0006257097731135259</v>
       </c>
       <c r="T5">
-        <v>0.04578983449590287</v>
+        <v>0.0006630389471518378</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.200729554814205</v>
+        <v>0.055305</v>
       </c>
       <c r="H6">
-        <v>0.200729554814205</v>
+        <v>0.11061</v>
       </c>
       <c r="I6">
-        <v>0.2641788018815708</v>
+        <v>0.05948165296722621</v>
       </c>
       <c r="J6">
-        <v>0.2641788018815708</v>
+        <v>0.04627135150330648</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.127706855121299</v>
+        <v>6.7207635</v>
       </c>
       <c r="N6">
-        <v>0.127706855121299</v>
+        <v>13.441527</v>
       </c>
       <c r="O6">
-        <v>0.01620821741097792</v>
+        <v>0.797660292168841</v>
       </c>
       <c r="P6">
-        <v>0.01620821741097792</v>
+        <v>0.7243753443962272</v>
       </c>
       <c r="Q6">
-        <v>0.02563454017522053</v>
+        <v>0.3716918253675</v>
       </c>
       <c r="R6">
-        <v>0.02563454017522053</v>
+        <v>1.48676730147</v>
       </c>
       <c r="S6">
-        <v>0.004281867456268163</v>
+        <v>0.04744615268452327</v>
       </c>
       <c r="T6">
-        <v>0.004281867456268163</v>
+        <v>0.03351782618088651</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.200729554814205</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H7">
-        <v>0.200729554814205</v>
+        <v>0.742642</v>
       </c>
       <c r="I7">
-        <v>0.2641788018815708</v>
+        <v>0.2662421946351253</v>
       </c>
       <c r="J7">
-        <v>0.2641788018815708</v>
+        <v>0.3106685563974191</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.553741808692665</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N7">
-        <v>0.553741808692665</v>
+        <v>0.481669</v>
       </c>
       <c r="O7">
-        <v>0.07027945067094503</v>
+        <v>0.01905578313479183</v>
       </c>
       <c r="P7">
-        <v>0.07027945067094503</v>
+        <v>0.02595755287029415</v>
       </c>
       <c r="Q7">
-        <v>0.1111523467408913</v>
+        <v>0.03974529216644444</v>
       </c>
       <c r="R7">
-        <v>0.1111523467408913</v>
+        <v>0.357707629498</v>
       </c>
       <c r="S7">
-        <v>0.01856634107514522</v>
+        <v>0.005073453522297983</v>
       </c>
       <c r="T7">
-        <v>0.01856634107514522</v>
+        <v>0.008064195477823969</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.200729554814205</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H8">
-        <v>0.200729554814205</v>
+        <v>0.742642</v>
       </c>
       <c r="I8">
-        <v>0.2641788018815708</v>
+        <v>0.2662421946351253</v>
       </c>
       <c r="J8">
-        <v>0.2641788018815708</v>
+        <v>0.3106685563974191</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.887055446878028</v>
+        <v>0.5664446666666666</v>
       </c>
       <c r="N8">
-        <v>0.887055446878028</v>
+        <v>1.699334</v>
       </c>
       <c r="O8">
-        <v>0.1125827389996808</v>
+        <v>0.06722903109309158</v>
       </c>
       <c r="P8">
-        <v>0.1125827389996808</v>
+        <v>0.09157855736883304</v>
       </c>
       <c r="Q8">
-        <v>0.1780582449473422</v>
+        <v>0.1402218667142222</v>
       </c>
       <c r="R8">
-        <v>0.1780582449473422</v>
+        <v>1.261996800428</v>
       </c>
       <c r="S8">
-        <v>0.02974197310148127</v>
+        <v>0.01789920478141778</v>
       </c>
       <c r="T8">
-        <v>0.02974197310148127</v>
+        <v>0.02845057821473359</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.200729554814205</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H9">
-        <v>0.200729554814205</v>
+        <v>0.742642</v>
       </c>
       <c r="I9">
-        <v>0.2641788018815708</v>
+        <v>0.2662421946351253</v>
       </c>
       <c r="J9">
-        <v>0.2641788018815708</v>
+        <v>0.3106685563974191</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.3106384182577</v>
+        <v>0.8891996666666667</v>
       </c>
       <c r="N9">
-        <v>6.3106384182577</v>
+        <v>2.667599</v>
       </c>
       <c r="O9">
-        <v>0.8009295929183963</v>
+        <v>0.105535519276905</v>
       </c>
       <c r="P9">
-        <v>0.8009295929183963</v>
+        <v>0.1437591833380263</v>
       </c>
       <c r="Q9">
-        <v>1.266731640290287</v>
+        <v>0.2201190062842222</v>
       </c>
       <c r="R9">
-        <v>1.266731640290287</v>
+        <v>1.981071056558</v>
       </c>
       <c r="S9">
-        <v>0.2115886202486762</v>
+        <v>0.02809800826424075</v>
       </c>
       <c r="T9">
-        <v>0.2115886202486762</v>
+        <v>0.04466145795649656</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.111819430566395</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H10">
-        <v>0.111819430566395</v>
+        <v>0.742642</v>
       </c>
       <c r="I10">
-        <v>0.147164792057912</v>
+        <v>0.2662421946351253</v>
       </c>
       <c r="J10">
-        <v>0.147164792057912</v>
+        <v>0.3106685563974191</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.127706855121299</v>
+        <v>0.088632</v>
       </c>
       <c r="N10">
-        <v>0.127706855121299</v>
+        <v>0.265896</v>
       </c>
       <c r="O10">
-        <v>0.01620821741097792</v>
+        <v>0.01051937432637061</v>
       </c>
       <c r="P10">
-        <v>0.01620821741097792</v>
+        <v>0.01432936202661939</v>
       </c>
       <c r="Q10">
-        <v>0.01428010781908876</v>
+        <v>0.021940615248</v>
       </c>
       <c r="R10">
-        <v>0.01428010781908876</v>
+        <v>0.197465537232</v>
       </c>
       <c r="S10">
-        <v>0.002385278944915994</v>
+        <v>0.002800701306841305</v>
       </c>
       <c r="T10">
-        <v>0.002385278944915994</v>
+        <v>0.004451682214905842</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.111819430566395</v>
+        <v>0.2475473333333333</v>
       </c>
       <c r="H11">
-        <v>0.111819430566395</v>
+        <v>0.742642</v>
       </c>
       <c r="I11">
-        <v>0.147164792057912</v>
+        <v>0.2662421946351253</v>
       </c>
       <c r="J11">
-        <v>0.147164792057912</v>
+        <v>0.3106685563974191</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.553741808692665</v>
+        <v>6.7207635</v>
       </c>
       <c r="N11">
-        <v>0.553741808692665</v>
+        <v>13.441527</v>
       </c>
       <c r="O11">
-        <v>0.07027945067094503</v>
+        <v>0.797660292168841</v>
       </c>
       <c r="P11">
-        <v>0.07027945067094503</v>
+        <v>0.7243753443962272</v>
       </c>
       <c r="Q11">
-        <v>0.06191909372881944</v>
+        <v>1.663707082389</v>
       </c>
       <c r="R11">
-        <v>0.06191909372881944</v>
+        <v>9.982242494334001</v>
       </c>
       <c r="S11">
-        <v>0.01034266074393391</v>
+        <v>0.2123708267603275</v>
       </c>
       <c r="T11">
-        <v>0.01034266074393391</v>
+        <v>0.2250406425334592</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.111819430566395</v>
+        <v>0.1254893333333333</v>
       </c>
       <c r="H12">
-        <v>0.111819430566395</v>
+        <v>0.376468</v>
       </c>
       <c r="I12">
-        <v>0.147164792057912</v>
+        <v>0.1349663317317043</v>
       </c>
       <c r="J12">
-        <v>0.147164792057912</v>
+        <v>0.1574874166688978</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.887055446878028</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N12">
-        <v>0.887055446878028</v>
+        <v>0.481669</v>
       </c>
       <c r="O12">
-        <v>0.1125827389996808</v>
+        <v>0.01905578313479183</v>
       </c>
       <c r="P12">
-        <v>0.1125827389996808</v>
+        <v>0.02595755287029415</v>
       </c>
       <c r="Q12">
-        <v>0.09919003495072014</v>
+        <v>0.02014810723244444</v>
       </c>
       <c r="R12">
-        <v>0.09919003495072014</v>
+        <v>0.181332965092</v>
       </c>
       <c r="S12">
-        <v>0.0165682153741982</v>
+        <v>0.002571889147977729</v>
       </c>
       <c r="T12">
-        <v>0.0165682153741982</v>
+        <v>0.004087987944588959</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,122 +1216,122 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.111819430566395</v>
+        <v>0.1254893333333333</v>
       </c>
       <c r="H13">
-        <v>0.111819430566395</v>
+        <v>0.376468</v>
       </c>
       <c r="I13">
-        <v>0.147164792057912</v>
+        <v>0.1349663317317043</v>
       </c>
       <c r="J13">
-        <v>0.147164792057912</v>
+        <v>0.1574874166688978</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.3106384182577</v>
+        <v>0.5664446666666666</v>
       </c>
       <c r="N13">
-        <v>6.3106384182577</v>
+        <v>1.699334</v>
       </c>
       <c r="O13">
-        <v>0.8009295929183963</v>
+        <v>0.06722903109309158</v>
       </c>
       <c r="P13">
-        <v>0.8009295929183963</v>
+        <v>0.09157855736883304</v>
       </c>
       <c r="Q13">
-        <v>0.7056519944399917</v>
+        <v>0.0710827635902222</v>
       </c>
       <c r="R13">
-        <v>0.7056519944399917</v>
+        <v>0.6397448723119999</v>
       </c>
       <c r="S13">
-        <v>0.1178686369948639</v>
+        <v>0.00907365571251126</v>
       </c>
       <c r="T13">
-        <v>0.1178686369948639</v>
+        <v>0.01442247042228197</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0892603828851998</v>
+        <v>0.1254893333333333</v>
       </c>
       <c r="H14">
-        <v>0.0892603828851998</v>
+        <v>0.376468</v>
       </c>
       <c r="I14">
-        <v>0.1174749828341353</v>
+        <v>0.1349663317317043</v>
       </c>
       <c r="J14">
-        <v>0.1174749828341353</v>
+        <v>0.1574874166688978</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.127706855121299</v>
+        <v>0.8891996666666667</v>
       </c>
       <c r="N14">
-        <v>0.127706855121299</v>
+        <v>2.667599</v>
       </c>
       <c r="O14">
-        <v>0.01620821741097792</v>
+        <v>0.105535519276905</v>
       </c>
       <c r="P14">
-        <v>0.01620821741097792</v>
+        <v>0.1437591833380263</v>
       </c>
       <c r="Q14">
-        <v>0.01139916278519189</v>
+        <v>0.1115850733702222</v>
       </c>
       <c r="R14">
-        <v>0.01139916278519189</v>
+        <v>1.004265660332</v>
       </c>
       <c r="S14">
-        <v>0.001904060062126564</v>
+        <v>0.01424374190420443</v>
       </c>
       <c r="T14">
-        <v>0.001904060062126564</v>
+        <v>0.02264026240633622</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0892603828851998</v>
+        <v>0.1254893333333333</v>
       </c>
       <c r="H15">
-        <v>0.0892603828851998</v>
+        <v>0.376468</v>
       </c>
       <c r="I15">
-        <v>0.1174749828341353</v>
+        <v>0.1349663317317043</v>
       </c>
       <c r="J15">
-        <v>0.1174749828341353</v>
+        <v>0.1574874166688978</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.553741808692665</v>
+        <v>0.088632</v>
       </c>
       <c r="N15">
-        <v>0.553741808692665</v>
+        <v>0.265896</v>
       </c>
       <c r="O15">
-        <v>0.07027945067094503</v>
+        <v>0.01051937432637061</v>
       </c>
       <c r="P15">
-        <v>0.07027945067094503</v>
+        <v>0.01432936202661939</v>
       </c>
       <c r="Q15">
-        <v>0.04942720586345033</v>
+        <v>0.011122370592</v>
       </c>
       <c r="R15">
-        <v>0.04942720586345033</v>
+        <v>0.100101335328</v>
       </c>
       <c r="S15">
-        <v>0.008256077261161725</v>
+        <v>0.00141976136494291</v>
       </c>
       <c r="T15">
-        <v>0.008256077261161725</v>
+        <v>0.002256694208085689</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0892603828851998</v>
+        <v>0.1254893333333333</v>
       </c>
       <c r="H16">
-        <v>0.0892603828851998</v>
+        <v>0.376468</v>
       </c>
       <c r="I16">
-        <v>0.1174749828341353</v>
+        <v>0.1349663317317043</v>
       </c>
       <c r="J16">
-        <v>0.1174749828341353</v>
+        <v>0.1574874166688978</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.887055446878028</v>
+        <v>6.7207635</v>
       </c>
       <c r="N16">
-        <v>0.887055446878028</v>
+        <v>13.441527</v>
       </c>
       <c r="O16">
-        <v>0.1125827389996808</v>
+        <v>0.797660292168841</v>
       </c>
       <c r="P16">
-        <v>0.1125827389996808</v>
+        <v>0.7243753443962272</v>
       </c>
       <c r="Q16">
-        <v>0.07917890882873478</v>
+        <v>0.8433841311059999</v>
       </c>
       <c r="R16">
-        <v>0.07917890882873478</v>
+        <v>5.060304786636</v>
       </c>
       <c r="S16">
-        <v>0.01322565533140743</v>
+        <v>0.107657283602068</v>
       </c>
       <c r="T16">
-        <v>0.01322565533140743</v>
+        <v>0.1140800016876049</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0892603828851998</v>
+        <v>0.09583999999999999</v>
       </c>
       <c r="H17">
-        <v>0.0892603828851998</v>
+        <v>0.28752</v>
       </c>
       <c r="I17">
-        <v>0.1174749828341353</v>
+        <v>0.1030778703621546</v>
       </c>
       <c r="J17">
-        <v>0.1174749828341353</v>
+        <v>0.1202779042060454</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.3106384182577</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N17">
-        <v>6.3106384182577</v>
+        <v>0.481669</v>
       </c>
       <c r="O17">
-        <v>0.8009295929183963</v>
+        <v>0.01905578313479183</v>
       </c>
       <c r="P17">
-        <v>0.8009295929183963</v>
+        <v>0.02595755287029415</v>
       </c>
       <c r="Q17">
-        <v>0.563290001463734</v>
+        <v>0.01538771898666666</v>
       </c>
       <c r="R17">
-        <v>0.563290001463734</v>
+        <v>0.13848947088</v>
       </c>
       <c r="S17">
-        <v>0.09408919017943958</v>
+        <v>0.001964229543617404</v>
       </c>
       <c r="T17">
-        <v>0.09408919017943958</v>
+        <v>0.003122120057556598</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0483226329962556</v>
+        <v>0.09583999999999999</v>
       </c>
       <c r="H18">
-        <v>0.0483226329962556</v>
+        <v>0.28752</v>
       </c>
       <c r="I18">
-        <v>0.06359708863266142</v>
+        <v>0.1030778703621546</v>
       </c>
       <c r="J18">
-        <v>0.06359708863266142</v>
+        <v>0.1202779042060454</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.127706855121299</v>
+        <v>0.5664446666666666</v>
       </c>
       <c r="N18">
-        <v>0.127706855121299</v>
+        <v>1.699334</v>
       </c>
       <c r="O18">
-        <v>0.01620821741097792</v>
+        <v>0.06722903109309158</v>
       </c>
       <c r="P18">
-        <v>0.01620821741097792</v>
+        <v>0.09157855736883304</v>
       </c>
       <c r="Q18">
-        <v>0.006171131491132517</v>
+        <v>0.05428805685333332</v>
       </c>
       <c r="R18">
-        <v>0.006171131491132517</v>
+        <v>0.48859251168</v>
       </c>
       <c r="S18">
-        <v>0.001030795439263409</v>
+        <v>0.006929825351586955</v>
       </c>
       <c r="T18">
-        <v>0.001030795439263409</v>
+        <v>0.01101487695053633</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,122 +1588,122 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0483226329962556</v>
+        <v>0.09583999999999999</v>
       </c>
       <c r="H19">
-        <v>0.0483226329962556</v>
+        <v>0.28752</v>
       </c>
       <c r="I19">
-        <v>0.06359708863266142</v>
+        <v>0.1030778703621546</v>
       </c>
       <c r="J19">
-        <v>0.06359708863266142</v>
+        <v>0.1202779042060454</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.553741808692665</v>
+        <v>0.8891996666666667</v>
       </c>
       <c r="N19">
-        <v>0.553741808692665</v>
+        <v>2.667599</v>
       </c>
       <c r="O19">
-        <v>0.07027945067094503</v>
+        <v>0.105535519276905</v>
       </c>
       <c r="P19">
-        <v>0.07027945067094503</v>
+        <v>0.1437591833380263</v>
       </c>
       <c r="Q19">
-        <v>0.02675826219613843</v>
+        <v>0.08522089605333333</v>
       </c>
       <c r="R19">
-        <v>0.02675826219613843</v>
+        <v>0.76698806448</v>
       </c>
       <c r="S19">
-        <v>0.004469568453374847</v>
+        <v>0.01087837657462748</v>
       </c>
       <c r="T19">
-        <v>0.004469568453374847</v>
+        <v>0.01729105328227044</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0483226329962556</v>
+        <v>0.09583999999999999</v>
       </c>
       <c r="H20">
-        <v>0.0483226329962556</v>
+        <v>0.28752</v>
       </c>
       <c r="I20">
-        <v>0.06359708863266142</v>
+        <v>0.1030778703621546</v>
       </c>
       <c r="J20">
-        <v>0.06359708863266142</v>
+        <v>0.1202779042060454</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.887055446878028</v>
+        <v>0.088632</v>
       </c>
       <c r="N20">
-        <v>0.887055446878028</v>
+        <v>0.265896</v>
       </c>
       <c r="O20">
-        <v>0.1125827389996808</v>
+        <v>0.01051937432637061</v>
       </c>
       <c r="P20">
-        <v>0.1125827389996808</v>
+        <v>0.01432936202661939</v>
       </c>
       <c r="Q20">
-        <v>0.04286485480681645</v>
+        <v>0.00849449088</v>
       </c>
       <c r="R20">
-        <v>0.04286485480681645</v>
+        <v>0.07645041792</v>
       </c>
       <c r="S20">
-        <v>0.007159934430670485</v>
+        <v>0.001084314703104607</v>
       </c>
       <c r="T20">
-        <v>0.007159934430670485</v>
+        <v>0.001723505633171471</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0483226329962556</v>
+        <v>0.09583999999999999</v>
       </c>
       <c r="H21">
-        <v>0.0483226329962556</v>
+        <v>0.28752</v>
       </c>
       <c r="I21">
-        <v>0.06359708863266142</v>
+        <v>0.1030778703621546</v>
       </c>
       <c r="J21">
-        <v>0.06359708863266142</v>
+        <v>0.1202779042060454</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.3106384182577</v>
+        <v>6.7207635</v>
       </c>
       <c r="N21">
-        <v>6.3106384182577</v>
+        <v>13.441527</v>
       </c>
       <c r="O21">
-        <v>0.8009295929183963</v>
+        <v>0.797660292168841</v>
       </c>
       <c r="P21">
-        <v>0.8009295929183963</v>
+        <v>0.7243753443962272</v>
       </c>
       <c r="Q21">
-        <v>0.3049466642575378</v>
+        <v>0.64411797384</v>
       </c>
       <c r="R21">
-        <v>0.3049466642575378</v>
+        <v>3.86470784304</v>
       </c>
       <c r="S21">
-        <v>0.05093679030935268</v>
+        <v>0.08222112418921815</v>
       </c>
       <c r="T21">
-        <v>0.05093679030935268</v>
+        <v>0.08712634828251054</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.266252780454965</v>
+        <v>0.06202233333333333</v>
       </c>
       <c r="H22">
-        <v>0.266252780454965</v>
+        <v>0.186067</v>
       </c>
       <c r="I22">
-        <v>0.3504134735083462</v>
+        <v>0.06670628166623196</v>
       </c>
       <c r="J22">
-        <v>0.3504134735083462</v>
+        <v>0.07783718976734225</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.127706855121299</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N22">
-        <v>0.127706855121299</v>
+        <v>0.481669</v>
       </c>
       <c r="O22">
-        <v>0.01620821741097792</v>
+        <v>0.01905578313479183</v>
       </c>
       <c r="P22">
-        <v>0.01620821741097792</v>
+        <v>0.02595755287029415</v>
       </c>
       <c r="Q22">
-        <v>0.03400230525920524</v>
+        <v>0.009958078424777776</v>
       </c>
       <c r="R22">
-        <v>0.03400230525920524</v>
+        <v>0.089622705823</v>
       </c>
       <c r="S22">
-        <v>0.005679577762359227</v>
+        <v>0.001271140437160056</v>
       </c>
       <c r="T22">
-        <v>0.005679577762359227</v>
+        <v>0.002020462968660906</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.266252780454965</v>
+        <v>0.06202233333333333</v>
       </c>
       <c r="H23">
-        <v>0.266252780454965</v>
+        <v>0.186067</v>
       </c>
       <c r="I23">
-        <v>0.3504134735083462</v>
+        <v>0.06670628166623196</v>
       </c>
       <c r="J23">
-        <v>0.3504134735083462</v>
+        <v>0.07783718976734225</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.553741808692665</v>
+        <v>0.5664446666666666</v>
       </c>
       <c r="N23">
-        <v>0.553741808692665</v>
+        <v>1.699334</v>
       </c>
       <c r="O23">
-        <v>0.07027945067094503</v>
+        <v>0.06722903109309158</v>
       </c>
       <c r="P23">
-        <v>0.07027945067094503</v>
+        <v>0.09157855736883304</v>
       </c>
       <c r="Q23">
-        <v>0.1474352962185833</v>
+        <v>0.03513221993088888</v>
       </c>
       <c r="R23">
-        <v>0.1474352962185833</v>
+        <v>0.316189979378</v>
       </c>
       <c r="S23">
-        <v>0.02462686642586432</v>
+        <v>0.004484598684243634</v>
       </c>
       <c r="T23">
-        <v>0.02462686642586432</v>
+        <v>0.007128217548537296</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,114 +1901,486 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.266252780454965</v>
+        <v>0.06202233333333333</v>
       </c>
       <c r="H24">
-        <v>0.266252780454965</v>
+        <v>0.186067</v>
       </c>
       <c r="I24">
-        <v>0.3504134735083462</v>
+        <v>0.06670628166623196</v>
       </c>
       <c r="J24">
-        <v>0.3504134735083462</v>
+        <v>0.07783718976734225</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.887055446878028</v>
+        <v>0.8891996666666667</v>
       </c>
       <c r="N24">
-        <v>0.887055446878028</v>
+        <v>2.667599</v>
       </c>
       <c r="O24">
-        <v>0.1125827389996808</v>
+        <v>0.105535519276905</v>
       </c>
       <c r="P24">
-        <v>0.1125827389996808</v>
+        <v>0.1437591833380263</v>
       </c>
       <c r="Q24">
-        <v>0.2361809791489964</v>
+        <v>0.05515023812588889</v>
       </c>
       <c r="R24">
-        <v>0.2361809791489964</v>
+        <v>0.496352143133</v>
       </c>
       <c r="S24">
-        <v>0.0394505086299617</v>
+        <v>0.007039882074677276</v>
       </c>
       <c r="T24">
-        <v>0.0394505086299617</v>
+        <v>0.0111898108342801</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.06202233333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.186067</v>
+      </c>
+      <c r="I25">
+        <v>0.06670628166623196</v>
+      </c>
+      <c r="J25">
+        <v>0.07783718976734225</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.088632</v>
+      </c>
+      <c r="N25">
+        <v>0.265896</v>
+      </c>
+      <c r="O25">
+        <v>0.01051937432637061</v>
+      </c>
+      <c r="P25">
+        <v>0.01432936202661939</v>
+      </c>
+      <c r="Q25">
+        <v>0.005497163447999999</v>
+      </c>
+      <c r="R25">
+        <v>0.049474471032</v>
+      </c>
+      <c r="S25">
+        <v>0.0007017083467674073</v>
+      </c>
+      <c r="T25">
+        <v>0.001115357271310921</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.06202233333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.186067</v>
+      </c>
+      <c r="I26">
+        <v>0.06670628166623196</v>
+      </c>
+      <c r="J26">
+        <v>0.07783718976734225</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.7207635</v>
+      </c>
+      <c r="N26">
+        <v>13.441527</v>
+      </c>
+      <c r="O26">
+        <v>0.797660292168841</v>
+      </c>
+      <c r="P26">
+        <v>0.7243753443962272</v>
+      </c>
+      <c r="Q26">
+        <v>0.4168374340515</v>
+      </c>
+      <c r="R26">
+        <v>2.501024604309</v>
+      </c>
+      <c r="S26">
+        <v>0.05320895212338359</v>
+      </c>
+      <c r="T26">
+        <v>0.05638334114455303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.266252780454965</v>
-      </c>
-      <c r="H25">
-        <v>0.266252780454965</v>
-      </c>
-      <c r="I25">
-        <v>0.3504134735083462</v>
-      </c>
-      <c r="J25">
-        <v>0.3504134735083462</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>6.3106384182577</v>
-      </c>
-      <c r="N25">
-        <v>6.3106384182577</v>
-      </c>
-      <c r="O25">
-        <v>0.8009295929183963</v>
-      </c>
-      <c r="P25">
-        <v>0.8009295929183963</v>
-      </c>
-      <c r="Q25">
-        <v>1.680225025307035</v>
-      </c>
-      <c r="R25">
-        <v>1.680225025307035</v>
-      </c>
-      <c r="S25">
-        <v>0.280656520690161</v>
-      </c>
-      <c r="T25">
-        <v>0.280656520690161</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.3435785</v>
+      </c>
+      <c r="H27">
+        <v>0.687157</v>
+      </c>
+      <c r="I27">
+        <v>0.3695256686375578</v>
+      </c>
+      <c r="J27">
+        <v>0.2874575814569891</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.1605563333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.481669</v>
+      </c>
+      <c r="O27">
+        <v>0.01905578313479183</v>
+      </c>
+      <c r="P27">
+        <v>0.02595755287029415</v>
+      </c>
+      <c r="Q27">
+        <v>0.05516370417216666</v>
+      </c>
+      <c r="R27">
+        <v>0.330982225033</v>
+      </c>
+      <c r="S27">
+        <v>0.007041601004296246</v>
+      </c>
+      <c r="T27">
+        <v>0.007461695368636684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.3435785</v>
+      </c>
+      <c r="H28">
+        <v>0.687157</v>
+      </c>
+      <c r="I28">
+        <v>0.3695256686375578</v>
+      </c>
+      <c r="J28">
+        <v>0.2874575814569891</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.5664446666666666</v>
+      </c>
+      <c r="N28">
+        <v>1.699334</v>
+      </c>
+      <c r="O28">
+        <v>0.06722903109309158</v>
+      </c>
+      <c r="P28">
+        <v>0.09157855736883304</v>
+      </c>
+      <c r="Q28">
+        <v>0.1946182089063333</v>
+      </c>
+      <c r="R28">
+        <v>1.167709253438</v>
+      </c>
+      <c r="S28">
+        <v>0.02484285266652983</v>
+      </c>
+      <c r="T28">
+        <v>0.02632495061456487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.3435785</v>
+      </c>
+      <c r="H29">
+        <v>0.687157</v>
+      </c>
+      <c r="I29">
+        <v>0.3695256686375578</v>
+      </c>
+      <c r="J29">
+        <v>0.2874575814569891</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.8891996666666667</v>
+      </c>
+      <c r="N29">
+        <v>2.667599</v>
+      </c>
+      <c r="O29">
+        <v>0.105535519276905</v>
+      </c>
+      <c r="P29">
+        <v>0.1437591833380263</v>
+      </c>
+      <c r="Q29">
+        <v>0.3055098876738334</v>
+      </c>
+      <c r="R29">
+        <v>1.833059326043</v>
+      </c>
+      <c r="S29">
+        <v>0.03899808332581018</v>
+      </c>
+      <c r="T29">
+        <v>0.04132466715458094</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.3435785</v>
+      </c>
+      <c r="H30">
+        <v>0.687157</v>
+      </c>
+      <c r="I30">
+        <v>0.3695256686375578</v>
+      </c>
+      <c r="J30">
+        <v>0.2874575814569891</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.088632</v>
+      </c>
+      <c r="N30">
+        <v>0.265896</v>
+      </c>
+      <c r="O30">
+        <v>0.01051937432637061</v>
+      </c>
+      <c r="P30">
+        <v>0.01432936202661939</v>
+      </c>
+      <c r="Q30">
+        <v>0.030452049612</v>
+      </c>
+      <c r="R30">
+        <v>0.182712297672</v>
+      </c>
+      <c r="S30">
+        <v>0.00388717883160086</v>
+      </c>
+      <c r="T30">
+        <v>0.00411908375199363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.3435785</v>
+      </c>
+      <c r="H31">
+        <v>0.687157</v>
+      </c>
+      <c r="I31">
+        <v>0.3695256686375578</v>
+      </c>
+      <c r="J31">
+        <v>0.2874575814569891</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>6.7207635</v>
+      </c>
+      <c r="N31">
+        <v>13.441527</v>
+      </c>
+      <c r="O31">
+        <v>0.797660292168841</v>
+      </c>
+      <c r="P31">
+        <v>0.7243753443962272</v>
+      </c>
+      <c r="Q31">
+        <v>2.30910984218475</v>
+      </c>
+      <c r="R31">
+        <v>9.236439368739001</v>
+      </c>
+      <c r="S31">
+        <v>0.2947559528093207</v>
+      </c>
+      <c r="T31">
+        <v>0.208227184567213</v>
       </c>
     </row>
   </sheetData>
